--- a/php_project/onlinshop.db.xlsx
+++ b/php_project/onlinshop.db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="21072" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,28 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">page table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pageid </t>
-  </si>
-  <si>
-    <t>pagename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acclist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCLIST ID </t>
-  </si>
-  <si>
-    <t>roleid</t>
-  </si>
-  <si>
-    <t>pageid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>invoice</t>
   </si>
@@ -64,6 +43,9 @@
   </si>
   <si>
     <t>ID_Inv</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
 </sst>
 </file>
@@ -141,6 +123,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,9 +136,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,94 +438,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Connector 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7191375" y="5476875"/>
-          <a:ext cx="609600" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4086225" y="6038850"/>
-          <a:ext cx="2552700" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -879,159 +773,145 @@
   <dimension ref="E7:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="17:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="17:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="17:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="29" spans="5:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="Q31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="29" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="K29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="Q30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="J36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1070,7 +950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1082,7 +962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
